--- a/Processed Results/Mi 9T/Baseline/Baseline - Processed.xlsx
+++ b/Processed Results/Mi 9T/Baseline/Baseline - Processed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Baseline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CF11C-295D-49B7-A3FC-CB51644F6F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4B916-01BB-452A-BDD2-2446FF588C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="8740" yWindow="0" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2390,7 +2390,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
